--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_218__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_218__Reeval_LHS_Modell_1.3.xlsx
@@ -5879,7 +5879,7 @@
                   <c:v>67.26888275146484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.18438720703125</c:v>
+                  <c:v>70.18437957763672</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>54.54991149902344</c:v>
@@ -5888,7 +5888,7 @@
                   <c:v>76.23137664794922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.81198883056641</c:v>
+                  <c:v>64.81199645996094</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>61.83950042724609</c:v>
@@ -5936,7 +5936,7 @@
                   <c:v>65.18311309814453</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>66.65876007080078</c:v>
+                  <c:v>66.65876770019531</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>64.37587738037109</c:v>
@@ -5951,7 +5951,7 @@
                   <c:v>59.59450531005859</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.57124328613281</c:v>
+                  <c:v>70.57123565673828</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>69.66284942626953</c:v>
@@ -5960,7 +5960,7 @@
                   <c:v>64.32633209228516</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69.02558898925781</c:v>
+                  <c:v>69.02558135986328</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>69.32035064697266</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>65.99216461181641</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>72.33116149902344</c:v>
+                  <c:v>72.33116912841797</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>68.01356506347656</c:v>
@@ -6062,7 +6062,7 @@
                   <c:v>65.71320343017578</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>65.26737213134766</c:v>
+                  <c:v>65.26737976074219</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>72.19081878662109</c:v>
@@ -6086,10 +6086,10 @@
                   <c:v>59.83655548095703</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>73.13069152832031</c:v>
+                  <c:v>73.13068389892578</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>70.89842987060547</c:v>
+                  <c:v>70.8984375</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>70.95363616943359</c:v>
@@ -6101,7 +6101,7 @@
                   <c:v>67.37242126464844</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>66.93309020996094</c:v>
+                  <c:v>66.93308258056641</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>66.01638793945312</c:v>
@@ -6128,7 +6128,7 @@
                   <c:v>71.42534637451172</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>56.51177978515625</c:v>
+                  <c:v>56.51177215576172</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>71.91700744628906</c:v>
@@ -6146,7 +6146,7 @@
                   <c:v>60.11734008789062</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>68.45849609375</c:v>
+                  <c:v>68.45848846435547</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>68.71649932861328</c:v>
@@ -6161,7 +6161,7 @@
                   <c:v>69.20691680908203</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>64.41657257080078</c:v>
+                  <c:v>64.41656494140625</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>68.85742950439453</c:v>
@@ -6923,7 +6923,7 @@
         <v>65.66840000000001</v>
       </c>
       <c r="F4">
-        <v>70.18438720703125</v>
+        <v>70.18437957763672</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>64.81198883056641</v>
+        <v>64.81199645996094</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7351,7 +7351,7 @@
         <v>74.9674</v>
       </c>
       <c r="F23">
-        <v>66.65876007080078</v>
+        <v>66.65876770019531</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>73.9263</v>
       </c>
       <c r="F28">
-        <v>70.57124328613281</v>
+        <v>70.57123565673828</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>73.812</v>
       </c>
       <c r="F31">
-        <v>69.02558898925781</v>
+        <v>69.02558135986328</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>81.81910000000001</v>
       </c>
       <c r="F58">
-        <v>72.33116149902344</v>
+        <v>72.33116912841797</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>70.2961</v>
       </c>
       <c r="F65">
-        <v>65.26737213134766</v>
+        <v>65.26737976074219</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>83.1452</v>
       </c>
       <c r="F73">
-        <v>73.13069152832031</v>
+        <v>73.13068389892578</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>61.983</v>
       </c>
       <c r="F74">
-        <v>70.89842987060547</v>
+        <v>70.8984375</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>82.36839999999999</v>
       </c>
       <c r="F78">
-        <v>66.93309020996094</v>
+        <v>66.93308258056641</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>57.7404</v>
       </c>
       <c r="F87">
-        <v>56.51177978515625</v>
+        <v>56.51177215576172</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>77.9066</v>
       </c>
       <c r="F93">
-        <v>68.45849609375</v>
+        <v>68.45848846435547</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>69.08</v>
       </c>
       <c r="F98">
-        <v>64.41657257080078</v>
+        <v>64.41656494140625</v>
       </c>
     </row>
     <row r="99" spans="1:6">
